--- a/Assignment-1/Test.xlsx
+++ b/Assignment-1/Test.xlsx
@@ -9,10 +9,11 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25200" windowHeight="11985"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25200" windowHeight="11985" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -24,14 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
-  <si>
-    <t xml:space="preserve">Test </t>
-  </si>
-  <si>
-    <t>Value</t>
-  </si>
-</sst>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -65,8 +59,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -347,110 +342,201 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B11"/>
+  <dimension ref="A1:C10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B1" sqref="A1:C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1">
+        <f ca="1">RANDBETWEEN(0,10)</f>
+        <v>8</v>
+      </c>
+      <c r="B1">
+        <f ca="1">RANDBETWEEN(0,120)</f>
+        <v>103</v>
+      </c>
+      <c r="C1" s="1">
+        <f ca="1">RANDBETWEEN(10,100000)</f>
+        <v>2312</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <f t="shared" ref="A2:A10" ca="1" si="0">RANDBETWEEN(0,10)</f>
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B2">
+        <f t="shared" ref="B2:B10" ca="1" si="1">RANDBETWEEN(0,120)</f>
+        <v>109</v>
+      </c>
+      <c r="C2">
+        <f ca="1">RANDBETWEEN(10,100000)</f>
+        <v>77847</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <f t="shared" ca="1" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="B3">
+        <f t="shared" ca="1" si="1"/>
+        <v>19</v>
+      </c>
+      <c r="C3">
+        <f t="shared" ref="C3:C10" ca="1" si="2">RANDBETWEEN(10,100000)</f>
+        <v>17461</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <f t="shared" ca="1" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="B4">
+        <f t="shared" ca="1" si="1"/>
+        <v>100</v>
+      </c>
+      <c r="C4">
+        <f t="shared" ca="1" si="2"/>
+        <v>58091</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <f t="shared" ca="1" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="B5">
+        <f t="shared" ca="1" si="1"/>
+        <v>111</v>
+      </c>
+      <c r="C5">
+        <f t="shared" ca="1" si="2"/>
+        <v>68887</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <f t="shared" ca="1" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="B6">
+        <f t="shared" ca="1" si="1"/>
+        <v>69</v>
+      </c>
+      <c r="C6">
+        <f t="shared" ca="1" si="2"/>
+        <v>73508</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <f t="shared" ca="1" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="B7">
+        <f t="shared" ca="1" si="1"/>
+        <v>13</v>
+      </c>
+      <c r="C7">
+        <f t="shared" ca="1" si="2"/>
+        <v>24504</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <f t="shared" ca="1" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="B8">
+        <f t="shared" ca="1" si="1"/>
+        <v>46</v>
+      </c>
+      <c r="C8">
+        <f t="shared" ca="1" si="2"/>
+        <v>31709</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <f t="shared" ca="1" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="B9">
+        <f t="shared" ca="1" si="1"/>
+        <v>34</v>
+      </c>
+      <c r="C9">
+        <f t="shared" ca="1" si="2"/>
+        <v>15473</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <f t="shared" ca="1" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="B10">
+        <f t="shared" ca="1" si="1"/>
+        <v>101</v>
+      </c>
+      <c r="C10">
+        <f t="shared" ca="1" si="2"/>
+        <v>75995</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C3"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G13" sqref="G13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1">
+        <v>3.6324000000000001</v>
+      </c>
+      <c r="B1">
+        <v>0.32219999999999999</v>
+      </c>
+      <c r="C1">
+        <v>0.21809999999999999</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2">
-        <v>1</v>
+        <v>0.32219999999999999</v>
       </c>
       <c r="B2">
-        <f>POWER(A2, 2)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+        <v>3.9575</v>
+      </c>
+      <c r="C2">
+        <v>0.9677</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3">
-        <v>2</v>
+        <v>0.21809999999999999</v>
       </c>
       <c r="B3">
-        <f t="shared" ref="B3:B11" si="0">POWER(A3, 2)</f>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4">
-        <v>3</v>
-      </c>
-      <c r="B4">
-        <f t="shared" si="0"/>
-        <v>9</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5">
-        <v>4</v>
-      </c>
-      <c r="B5">
-        <f t="shared" si="0"/>
-        <v>16</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6">
-        <v>5</v>
-      </c>
-      <c r="B6">
-        <f t="shared" si="0"/>
-        <v>25</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7">
-        <v>6</v>
-      </c>
-      <c r="B7">
-        <f t="shared" si="0"/>
-        <v>36</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8">
-        <v>7</v>
-      </c>
-      <c r="B8">
-        <f t="shared" si="0"/>
-        <v>49</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9">
-        <v>8</v>
-      </c>
-      <c r="B9">
-        <f t="shared" si="0"/>
-        <v>64</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10">
-        <v>9</v>
-      </c>
-      <c r="B10">
-        <f t="shared" si="0"/>
-        <v>81</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11">
-        <v>10</v>
-      </c>
-      <c r="B11">
-        <f t="shared" si="0"/>
-        <v>100</v>
+        <v>0.9677</v>
+      </c>
+      <c r="C3">
+        <v>3.9571999999999998</v>
       </c>
     </row>
   </sheetData>

--- a/Assignment-1/Test.xlsx
+++ b/Assignment-1/Test.xlsx
@@ -9,11 +9,19 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25200" windowHeight="11985" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25200" windowHeight="11985" firstSheet="5" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="Sheet4" sheetId="4" r:id="rId4"/>
+    <sheet name="Sheet5" sheetId="5" r:id="rId5"/>
+    <sheet name="Sheet6" sheetId="6" r:id="rId6"/>
+    <sheet name="Sheet7" sheetId="7" r:id="rId7"/>
+    <sheet name="Sheet8" sheetId="8" r:id="rId8"/>
+    <sheet name="Sheet9" sheetId="9" r:id="rId9"/>
+    <sheet name="Sheet10" sheetId="10" r:id="rId10"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -22,10 +30,6 @@
     </ext>
   </extLst>
 </workbook>
-</file>
-
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -342,201 +346,436 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C10"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="A1:C1"/>
+  <dimension ref="A1:C2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1">
-        <f ca="1">RANDBETWEEN(0,10)</f>
-        <v>8</v>
-      </c>
-      <c r="B1">
-        <f ca="1">RANDBETWEEN(0,120)</f>
-        <v>103</v>
+        <v>0</v>
+      </c>
+      <c r="B1">
+        <v>10</v>
       </c>
       <c r="C1" s="1">
-        <f ca="1">RANDBETWEEN(10,100000)</f>
-        <v>2312</v>
+        <v>10</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2">
-        <f t="shared" ref="A2:A10" ca="1" si="0">RANDBETWEEN(0,10)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B2">
-        <f t="shared" ref="B2:B10" ca="1" si="1">RANDBETWEEN(0,120)</f>
-        <v>109</v>
+        <v>10</v>
       </c>
       <c r="C2">
-        <f ca="1">RANDBETWEEN(10,100000)</f>
-        <v>77847</v>
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1">
+        <v>-1</v>
+      </c>
+      <c r="B1">
+        <v>1</v>
+      </c>
+      <c r="C1">
+        <v>0</v>
+      </c>
+      <c r="D1">
+        <v>0</v>
+      </c>
+      <c r="E1">
+        <v>1</v>
+      </c>
+      <c r="F1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>-1</v>
+      </c>
+      <c r="C2">
+        <v>1</v>
+      </c>
+      <c r="D2">
+        <v>1</v>
+      </c>
+      <c r="E2">
+        <v>0</v>
+      </c>
+      <c r="F2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>0</v>
+      </c>
+      <c r="B3">
+        <v>0</v>
+      </c>
+      <c r="C3">
+        <v>0</v>
+      </c>
+      <c r="D3">
+        <v>-1</v>
+      </c>
+      <c r="E3">
+        <v>-1</v>
+      </c>
+      <c r="F3">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1">
+        <v>-1</v>
+      </c>
+      <c r="B1">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C1" sqref="C1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1">
+        <v>-10</v>
+      </c>
+      <c r="B1">
+        <v>10</v>
+      </c>
+      <c r="C1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>10</v>
+      </c>
+      <c r="C2">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1">
+        <v>-1</v>
+      </c>
+      <c r="B1">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1">
+        <v>0</v>
+      </c>
+      <c r="B1">
+        <v>10</v>
+      </c>
+      <c r="C1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>10</v>
+      </c>
+      <c r="B2">
+        <v>10</v>
+      </c>
+      <c r="C2">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1">
+        <v>-1</v>
+      </c>
+      <c r="B1">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1">
+        <v>0</v>
+      </c>
+      <c r="B1">
+        <v>10</v>
+      </c>
+      <c r="C1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>10</v>
+      </c>
+      <c r="C2">
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3">
-        <f t="shared" ca="1" si="0"/>
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="B3">
-        <f t="shared" ca="1" si="1"/>
-        <v>19</v>
+        <v>5</v>
       </c>
       <c r="C3">
-        <f t="shared" ref="C3:C10" ca="1" si="2">RANDBETWEEN(10,100000)</f>
-        <v>17461</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4">
-        <f t="shared" ca="1" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="B4">
         <v>5</v>
       </c>
+      <c r="C4">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1">
+        <v>-1</v>
+      </c>
+      <c r="B1">
+        <v>1</v>
+      </c>
+      <c r="C1">
+        <v>1</v>
+      </c>
+      <c r="D1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>0</v>
+      </c>
+      <c r="C2">
+        <v>-1</v>
+      </c>
+      <c r="D2">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C6"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2:C6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1">
+        <v>0</v>
+      </c>
+      <c r="B1">
+        <v>20</v>
+      </c>
+      <c r="C1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>10</v>
+      </c>
+      <c r="C2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>0</v>
+      </c>
+      <c r="B3">
+        <v>30</v>
+      </c>
+      <c r="C3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>0</v>
+      </c>
       <c r="B4">
-        <f t="shared" ca="1" si="1"/>
-        <v>100</v>
+        <v>30</v>
       </c>
       <c r="C4">
-        <f t="shared" ca="1" si="2"/>
-        <v>58091</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5">
-        <f t="shared" ca="1" si="0"/>
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="B5">
-        <f t="shared" ca="1" si="1"/>
-        <v>111</v>
+        <v>10</v>
       </c>
       <c r="C5">
-        <f t="shared" ca="1" si="2"/>
-        <v>68887</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6">
-        <f t="shared" ca="1" si="0"/>
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="B6">
-        <f t="shared" ca="1" si="1"/>
-        <v>69</v>
+        <v>30</v>
       </c>
       <c r="C6">
-        <f t="shared" ca="1" si="2"/>
-        <v>73508</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7">
-        <f t="shared" ca="1" si="0"/>
-        <v>8</v>
-      </c>
-      <c r="B7">
-        <f t="shared" ca="1" si="1"/>
-        <v>13</v>
-      </c>
-      <c r="C7">
-        <f t="shared" ca="1" si="2"/>
-        <v>24504</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8">
-        <f t="shared" ca="1" si="0"/>
-        <v>6</v>
-      </c>
-      <c r="B8">
-        <f t="shared" ca="1" si="1"/>
-        <v>46</v>
-      </c>
-      <c r="C8">
-        <f t="shared" ca="1" si="2"/>
-        <v>31709</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9">
-        <f t="shared" ca="1" si="0"/>
-        <v>9</v>
-      </c>
-      <c r="B9">
-        <f t="shared" ca="1" si="1"/>
-        <v>34</v>
-      </c>
-      <c r="C9">
-        <f t="shared" ca="1" si="2"/>
-        <v>15473</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10">
-        <f t="shared" ca="1" si="0"/>
-        <v>3</v>
-      </c>
-      <c r="B10">
-        <f t="shared" ca="1" si="1"/>
-        <v>101</v>
-      </c>
-      <c r="C10">
-        <f t="shared" ca="1" si="2"/>
-        <v>75995</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C3"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1">
-        <v>3.6324000000000001</v>
-      </c>
-      <c r="B1">
-        <v>0.32219999999999999</v>
-      </c>
-      <c r="C1">
-        <v>0.21809999999999999</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2">
-        <v>0.32219999999999999</v>
-      </c>
-      <c r="B2">
-        <v>3.9575</v>
-      </c>
-      <c r="C2">
-        <v>0.9677</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3">
-        <v>0.21809999999999999</v>
-      </c>
-      <c r="B3">
-        <v>0.9677</v>
-      </c>
-      <c r="C3">
-        <v>3.9571999999999998</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
